--- a/biology/Médecine/1736_en_santé_et_médecine/1736_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1736_en_santé_et_médecine/1736_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1736_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1736_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1736 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1736_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1736_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,17 +523,19 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Angleterre
 John Fothergill (1712-1780) obtient son diplôme de médecin à l'Université d’Édimbourg.
 États-Unis
-31 mars : fondation du Bellevue Hospital à New York aux États-Unis[1].
+31 mars : fondation du Bellevue Hospital à New York aux États-Unis.
 France
-3 septembre : déclaration portant que le premier chirurgien du roi sera autorisé à nommer des lieutenants et greffiers dans les communautés des maîtres chirurgiens des villes du royaume[2].
+3 septembre : déclaration portant que le premier chirurgien du roi sera autorisé à nommer des lieutenants et greffiers dans les communautés des maîtres chirurgiens des villes du royaume.
 La mort de son père et l'héritage qu'il en reçoit permettent à Daubenton (1716-1799) d'arrêter de suivre en secret les cours de médecine et d’anatomie et de choisir lui-même sa carrière de naturaliste et de médecin.
 Mexique
-En octobre, une épidémie de matlazáhuatl (peut-être la variole) éclate dans les environs de Mexico où l'Église catholique enterra dans 5 de ses cimetières extramuros 40 150 personnes victimes de l'épidémie[3].
+En octobre, une épidémie de matlazáhuatl (peut-être la variole) éclate dans les environs de Mexico où l'Église catholique enterra dans 5 de ses cimetières extramuros 40 150 personnes victimes de l'épidémie.
 Suisse
 Albrecht von Haller (1708-1777) prend la chaire d’anatomie, de chirurgie et de botanique à l'Université de Göttingen.</t>
         </is>
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1736_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1736_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,15 +565,17 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Philippe Hecquet (1661-1737) fait éditer :
 Lettre sur la convulsionnaire en extase ou la vaporeuse en rêve, 1736 (lire en ligne).
 La suceuse convulsionnaire ou la Psylle miraculeuse, 1736 (lire en ligne).
 Première publication de :
-De morbis venereis de Jean Astruc (1684-1766)[4]. Il y explique que la syphilis vient d' Amérique[5].
-Elementa chemiae medicae de Johann Friedrich Cartheuser (1704-1777)[6].
-L'Art de guérir par la saignée de François Quesnay (1694-1774)[7].</t>
+De morbis venereis de Jean Astruc (1684-1766). Il y explique que la syphilis vient d' Amérique.
+Elementa chemiae medicae de Johann Friedrich Cartheuser (1704-1777).
+L'Art de guérir par la saignée de François Quesnay (1694-1774).</t>
         </is>
       </c>
     </row>
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1736_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1736_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,10 +603,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5 février : Frédéric-Louis Allamand (mort vers 1803), médecin et botaniste suisse[8].
-3 août : Louis Vitet (mort en 1809), médecin et homme politique français, maire de Lyon[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>5 février : Frédéric-Louis Allamand (mort vers 1803), médecin et botaniste suisse.
+3 août : Louis Vitet (mort en 1809), médecin et homme politique français, maire de Lyon.
 3 décembre : Jean Colombier (mort en 1789), médecin militaire, chirurgien et hygiéniste français.
 Date inconnue
 Thomas Fowler (mort en 1801), pharmacien et médecin anglais, médecin de l'« hôpital des fous d'York ».
@@ -605,7 +623,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1736_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1736_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -623,7 +641,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>13 décembre : Georges Mareschal de Bièvre (né en 1658), premier chirurgien et confident du roi Louis XIV. Il est remplacé à ce poste par Lapeyronie (1678-1747).</t>
         </is>
